--- a/results/I3_N5_M3_T30_C100_DepCentral_s1_P3_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s1_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1401.084458763694</v>
+        <v>1833.400726831333</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008999824523925781</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.33445876369421</v>
+        <v>22.6154668145174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.530262044527518</v>
+        <v>9.935004806263807</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.530262044527518</v>
+        <v>4.720264823079315</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>667.1399999999999</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>693.6099999999999</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -810,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -901,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -934,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -984,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.304638042085728</v>
+        <v>26.30463804208573</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.21168903071567</v>
+        <v>11.60181147454999</v>
       </c>
     </row>
     <row r="5">
@@ -1008,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.25804892475681</v>
+        <v>22.55409141525918</v>
       </c>
     </row>
     <row r="7">
@@ -1016,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.720264823079315</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.78831096928433</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1032,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.69536195791427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1054,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1100,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1114,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1128,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1142,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1159,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1173,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1187,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1201,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1215,12 +1160,82 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8">
@@ -1334,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9">
@@ -1345,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10">
@@ -1356,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12">
@@ -1378,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>127.9900000000001</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -1389,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>119.7850000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -1400,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>122.6850000000001</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1411,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>130.4300000000001</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -1422,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>131.85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -1433,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>62.88999999999913</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -1444,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>61.55999999999913</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -1455,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>54.16999999999913</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -1466,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>56.28999999999913</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -1477,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>60.16999999999913</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1488,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>129.3899999999996</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23">
@@ -1499,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>127.1699999999996</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
@@ -1510,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>121.5899999999996</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25">
@@ -1521,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>126.3349999999996</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26">
@@ -1532,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>126.8049999999996</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27">
@@ -1543,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>83.55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
@@ -1554,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>81.25</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -1565,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>81.31500000000037</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
@@ -1576,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>84.61500000000036</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
@@ -1587,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.01500000000037</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -1598,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>127.9900000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1609,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>119.7850000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1620,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>122.6850000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1631,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>130.4300000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1642,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>131.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1653,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>115.6100000000003</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38">
@@ -1664,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>113.5950000000003</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
@@ -1675,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>115.2400000000003</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40">
@@ -1686,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>111.4400000000003</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41">
@@ -1697,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>113.6550000000003</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42">
@@ -1708,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>129.3899999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1719,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>127.1699999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1730,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>121.5899999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1741,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>126.3349999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1752,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>126.8049999999996</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>27.99000000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1810,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19.78500000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1821,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>22.68500000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1832,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>30.43000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1843,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>31.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1854,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.6100000000003</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1865,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5950000000003</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
@@ -1876,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>15.24000000000029</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -1887,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>11.4400000000003</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
@@ -1898,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>13.65500000000029</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -1909,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>29.38999999999965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1920,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>27.16999999999965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1931,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>21.58999999999963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1942,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>26.33499999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1953,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>26.80499999999964</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2011,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2022,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2033,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2044,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2055,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2066,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2077,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2088,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2099,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2110,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>22.18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -2121,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>26.98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2132,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -2143,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>26.68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2154,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>22.575</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -2165,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2176,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2187,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2198,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2209,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2220,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>18.175</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2231,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>14.87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2242,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>16.95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2253,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2264,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>17.55</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2360,7 +2375,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2371,7 +2386,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2382,7 +2397,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2393,7 +2408,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2404,7 +2419,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2415,7 +2430,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2426,7 +2441,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2437,7 +2452,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2448,7 +2463,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2459,7 +2474,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
